--- a/data/trans_orig/ESTUDIOS-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>56968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44416</v>
+        <v>44328</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71793</v>
+        <v>70429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2086668509450698</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1626908758328962</v>
+        <v>0.1623672677658523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2629680134420205</v>
+        <v>0.2579722400043835</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>52777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40400</v>
+        <v>39864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65499</v>
+        <v>65570</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2023368818326774</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1548836278061346</v>
+        <v>0.1528320570701283</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2511106658222392</v>
+        <v>0.2513824660015552</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -786,19 +786,19 @@
         <v>109745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92060</v>
+        <v>92481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>131760</v>
+        <v>129289</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2055740287108919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1724452855333156</v>
+        <v>0.1732343347984709</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2468121576308123</v>
+        <v>0.242183593194713</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>138017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119159</v>
+        <v>121902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152525</v>
+        <v>155942</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5055398651368072</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4364634510601008</v>
+        <v>0.4465109391472569</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5586792316316128</v>
+        <v>0.5711948608738463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>119</v>
@@ -836,19 +836,19 @@
         <v>127540</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112004</v>
+        <v>111219</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143545</v>
+        <v>145010</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4889635064815428</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4294022374826884</v>
+        <v>0.42639109958598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5503220442289919</v>
+        <v>0.5559389818992335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>255</v>
@@ -857,19 +857,19 @@
         <v>265558</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>242803</v>
+        <v>241504</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>290055</v>
+        <v>289841</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4974406580632151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4548161714756643</v>
+        <v>0.4523830413321105</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5433284061263582</v>
+        <v>0.5429271225680958</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>78024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64014</v>
+        <v>62739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94752</v>
+        <v>93494</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2857932839181231</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2344731061855071</v>
+        <v>0.2298046854153261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3470638629851011</v>
+        <v>0.3424552661742354</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -907,19 +907,19 @@
         <v>80521</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>66367</v>
+        <v>65463</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>96919</v>
+        <v>96710</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3086996116857798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2544368975939253</v>
+        <v>0.2509714634038457</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.371569421400994</v>
+        <v>0.3707682480653891</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>156</v>
@@ -928,19 +928,19 @@
         <v>158545</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>136879</v>
+        <v>136586</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>179009</v>
+        <v>181018</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.296985313225893</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2563999776188587</v>
+        <v>0.255850939885007</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3353180310113876</v>
+        <v>0.3390819453906994</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>82587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66576</v>
+        <v>62967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103511</v>
+        <v>99449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1674934482209953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.135022522939429</v>
+        <v>0.1277031801802289</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2099303033377292</v>
+        <v>0.2016923495535792</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -1053,19 +1053,19 @@
         <v>37473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26980</v>
+        <v>25959</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51054</v>
+        <v>50624</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07435944424154022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05353776899336644</v>
+        <v>0.05151061652530273</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1013070400266248</v>
+        <v>0.1004543377588758</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -1074,19 +1074,19 @@
         <v>120060</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>99377</v>
+        <v>99404</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>143530</v>
+        <v>143031</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1204185676026649</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09967328838738267</v>
+        <v>0.09970033844049882</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1439583486544552</v>
+        <v>0.1434581421548173</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>235189</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>214125</v>
+        <v>214673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>257402</v>
+        <v>260158</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4769838628621989</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4342646659647085</v>
+        <v>0.4353756452334369</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5220348003545568</v>
+        <v>0.5276236194290038</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>250</v>
@@ -1124,19 +1124,19 @@
         <v>250923</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>226376</v>
+        <v>228713</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>273268</v>
+        <v>271578</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4979144350611324</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.44920372556007</v>
+        <v>0.4538408781788748</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5422527245399494</v>
+        <v>0.5388990208340855</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>471</v>
@@ -1145,19 +1145,19 @@
         <v>486112</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>457978</v>
+        <v>456397</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>521298</v>
+        <v>516855</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4875632876204805</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4593445823433865</v>
+        <v>0.4577589086828023</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5228543655295569</v>
+        <v>0.5183977495414829</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>175299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152781</v>
+        <v>153912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196992</v>
+        <v>197932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3555226889168058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3098541552684485</v>
+        <v>0.3121476057830264</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.399516656086203</v>
+        <v>0.40142276105751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -1195,19 +1195,19 @@
         <v>215552</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>191752</v>
+        <v>195587</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239304</v>
+        <v>241742</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4277261206973273</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3804979218862833</v>
+        <v>0.3881093030980294</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4748584472250483</v>
+        <v>0.479696348567524</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>386</v>
@@ -1216,19 +1216,19 @@
         <v>390851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359837</v>
+        <v>360571</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>419881</v>
+        <v>421376</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3920181447768546</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3609113891475429</v>
+        <v>0.3616470393379995</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4211342646252014</v>
+        <v>0.4226332582182952</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>53058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40626</v>
+        <v>40083</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67729</v>
+        <v>68090</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1664052206602337</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1274152460078574</v>
+        <v>0.1257114642654453</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2124206985774652</v>
+        <v>0.2135520824910188</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -1341,19 +1341,19 @@
         <v>47677</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35553</v>
+        <v>36908</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>61323</v>
+        <v>60375</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1421442852488176</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1059981755736985</v>
+        <v>0.1100364214961695</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1828285753659226</v>
+        <v>0.180002181090931</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>96</v>
@@ -1362,19 +1362,19 @@
         <v>100735</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>81175</v>
+        <v>83090</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>120172</v>
+        <v>119483</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1539676043200872</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1240714482414633</v>
+        <v>0.1269987761079098</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1836770013350201</v>
+        <v>0.1826242731575746</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>180547</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160692</v>
+        <v>162458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198218</v>
+        <v>197573</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5662528288262093</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5039800875982731</v>
+        <v>0.5095198140510639</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6216726487908764</v>
+        <v>0.61964925562258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -1412,19 +1412,19 @@
         <v>153562</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135159</v>
+        <v>134427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171076</v>
+        <v>168991</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4578324028292322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4029626388437257</v>
+        <v>0.4007826722743667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5100475942714326</v>
+        <v>0.5038302988810588</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>330</v>
@@ -1433,19 +1433,19 @@
         <v>334110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>306885</v>
+        <v>309685</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>357518</v>
+        <v>358715</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.510669990031333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4690583919296388</v>
+        <v>0.4733372173836821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5464482770783649</v>
+        <v>0.5482770055484737</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>85241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68610</v>
+        <v>71024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103290</v>
+        <v>102210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2673419505135569</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2151809793596665</v>
+        <v>0.2227538073081332</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3239499006984186</v>
+        <v>0.32056218860593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -1483,19 +1483,19 @@
         <v>134173</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116664</v>
+        <v>118347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151742</v>
+        <v>153514</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4000233119219502</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.347824429729473</v>
+        <v>0.3528419304550892</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4524041181126201</v>
+        <v>0.4576886613761865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>219</v>
@@ -1504,19 +1504,19 @@
         <v>219414</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>196620</v>
+        <v>196386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242391</v>
+        <v>242991</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3353624056485798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3005243218559072</v>
+        <v>0.300165930800289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3704817414387563</v>
+        <v>0.371398938221813</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>59833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46805</v>
+        <v>46750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74610</v>
+        <v>74783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.166819004275778</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1304960537204888</v>
+        <v>0.1303436503605784</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2080189851399213</v>
+        <v>0.2085002757678477</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -1629,19 +1629,19 @@
         <v>73087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59096</v>
+        <v>59001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88867</v>
+        <v>87681</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1967593248514513</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1590917584672113</v>
+        <v>0.1588379355068305</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2392400011664491</v>
+        <v>0.2360461293765325</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -1650,19 +1650,19 @@
         <v>132921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112379</v>
+        <v>111886</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153282</v>
+        <v>154084</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.182051298793696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1539170688586171</v>
+        <v>0.1532413652793228</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2099381624112997</v>
+        <v>0.211037413318157</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>211229</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190640</v>
+        <v>190961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227631</v>
+        <v>228862</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.588921199578152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5315172543471963</v>
+        <v>0.5324135558187559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6346523195247216</v>
+        <v>0.6380844464491942</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1700,19 +1700,19 @@
         <v>171179</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153665</v>
+        <v>152160</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189970</v>
+        <v>189275</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4608328953017603</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4136832454384158</v>
+        <v>0.4096308324932228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5114203831109013</v>
+        <v>0.5095493317664128</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -1721,19 +1721,19 @@
         <v>382408</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357546</v>
+        <v>355690</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408216</v>
+        <v>407048</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5237556055723231</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4897037665718715</v>
+        <v>0.4871616858965654</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5591029585496254</v>
+        <v>0.5575023706866158</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>87609</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71244</v>
+        <v>73557</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>104483</v>
+        <v>104639</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.24425979614607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1986322461141907</v>
+        <v>0.2050834098449376</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2913049771035238</v>
+        <v>0.2917407175894069</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>133</v>
@@ -1771,19 +1771,19 @@
         <v>127189</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>111015</v>
+        <v>109984</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144433</v>
+        <v>144571</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3424077798467884</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2988631287878065</v>
+        <v>0.2960889121862825</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3888300583629326</v>
+        <v>0.3892005199507462</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>225</v>
@@ -1792,19 +1792,19 @@
         <v>214798</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>191393</v>
+        <v>193295</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>240545</v>
+        <v>241484</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2941930956339809</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2621368744559928</v>
+        <v>0.2647419924786358</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3294559371664319</v>
+        <v>0.3307430594052574</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>25943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17373</v>
+        <v>16669</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38360</v>
+        <v>37499</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1276032876616197</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08545133682243426</v>
+        <v>0.08198785722058768</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1886775621459094</v>
+        <v>0.1844420679052645</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -1917,19 +1917,19 @@
         <v>24231</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16540</v>
+        <v>15811</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36183</v>
+        <v>34805</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1166800260356207</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07964483491647718</v>
+        <v>0.0761355106467496</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1742358776895977</v>
+        <v>0.1675972462003954</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -1938,19 +1938,19 @@
         <v>50173</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38544</v>
+        <v>38252</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65644</v>
+        <v>64931</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1220837156149315</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09378682495966897</v>
+        <v>0.09307677660692174</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1597259392301162</v>
+        <v>0.1579934037897766</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>77514</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>63914</v>
+        <v>63324</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>91214</v>
+        <v>91635</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3812645724866879</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3143721633869582</v>
+        <v>0.311470071683828</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4486505331129236</v>
+        <v>0.4507198501356415</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>85</v>
@@ -1988,19 +1988,19 @@
         <v>89027</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>74085</v>
+        <v>74101</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>104210</v>
+        <v>103735</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4286991158772515</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3567473939815938</v>
+        <v>0.3568240665720335</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5018121597791378</v>
+        <v>0.4995229935246442</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>162</v>
@@ -2009,19 +2009,19 @@
         <v>166541</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>146057</v>
+        <v>146702</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>186499</v>
+        <v>187801</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.405233455473323</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3553916262278476</v>
+        <v>0.3569610458897728</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4537965310409386</v>
+        <v>0.4569637562920902</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>99851</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85541</v>
+        <v>86522</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113586</v>
+        <v>114233</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4911321398516925</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4207479780056529</v>
+        <v>0.4255698741360663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5586917321995625</v>
+        <v>0.5618693736109177</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -2059,19 +2059,19 @@
         <v>94410</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>80075</v>
+        <v>77800</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>109837</v>
+        <v>108073</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4546208580871277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.385591480848397</v>
+        <v>0.3746388000297316</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5289053840907146</v>
+        <v>0.5204145463216187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>194</v>
@@ -2080,19 +2080,19 @@
         <v>194261</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>174824</v>
+        <v>174072</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>215378</v>
+        <v>213414</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4726828289117454</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4253870241095662</v>
+        <v>0.4235568085650137</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5240657567298739</v>
+        <v>0.5192869367588614</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>53780</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41862</v>
+        <v>40771</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68131</v>
+        <v>67341</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1985873228628549</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1545793474385714</v>
+        <v>0.1505526553633732</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2515825668606462</v>
+        <v>0.248664759364609</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -2205,19 +2205,19 @@
         <v>34888</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24289</v>
+        <v>24920</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46154</v>
+        <v>46737</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1254322999347849</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08732399674197645</v>
+        <v>0.0895949656411848</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1659345193149132</v>
+        <v>0.1680318098410904</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -2226,19 +2226,19 @@
         <v>88668</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>74133</v>
+        <v>71665</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108555</v>
+        <v>106626</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1615212053320328</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1350437838505359</v>
+        <v>0.1305483435677885</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1977490154796018</v>
+        <v>0.1942338866058218</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>149297</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134006</v>
+        <v>133389</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>165861</v>
+        <v>165636</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5512976817575655</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4948327134466345</v>
+        <v>0.4925544005350843</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6124610062323718</v>
+        <v>0.6116293960897989</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -2276,19 +2276,19 @@
         <v>135056</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>118866</v>
+        <v>117520</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>151498</v>
+        <v>151119</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4855602592086056</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4273558315373225</v>
+        <v>0.4225131872838876</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5446744887335301</v>
+        <v>0.5433137344052308</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>277</v>
@@ -2297,19 +2297,19 @@
         <v>284353</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>261442</v>
+        <v>261410</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>307430</v>
+        <v>307239</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5179899069412157</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4762531390887119</v>
+        <v>0.476196388794157</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5600273352836634</v>
+        <v>0.5596802670062975</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>67734</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54067</v>
+        <v>53309</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>82018</v>
+        <v>83885</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2501149953795795</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1996495735446179</v>
+        <v>0.1968504684101014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3028624297010433</v>
+        <v>0.3097547258768237</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>104</v>
@@ -2347,19 +2347,19 @@
         <v>108200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>93180</v>
+        <v>92126</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>125380</v>
+        <v>125053</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3890074408566094</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3350068770180605</v>
+        <v>0.3312165436199288</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4507738762036566</v>
+        <v>0.4495990120515523</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>172</v>
@@ -2368,19 +2368,19 @@
         <v>175934</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>153797</v>
+        <v>154186</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>197167</v>
+        <v>197891</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3204888877267514</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2801638444681025</v>
+        <v>0.2808709411216297</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3591675911726336</v>
+        <v>0.3604858384841199</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>103656</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>85065</v>
+        <v>86585</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>123333</v>
+        <v>123679</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1685396955223442</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1383106547806268</v>
+        <v>0.1407824640660481</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2005334043877941</v>
+        <v>0.2010956433374287</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>83</v>
@@ -2493,19 +2493,19 @@
         <v>90315</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73056</v>
+        <v>72789</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>110642</v>
+        <v>108920</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1415103865901179</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1144691955061317</v>
+        <v>0.1140505068618834</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1733602204140013</v>
+        <v>0.1706625305984525</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>183</v>
@@ -2514,19 +2514,19 @@
         <v>193971</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>168988</v>
+        <v>169369</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>219928</v>
+        <v>223726</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1547749446494415</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1348405201623917</v>
+        <v>0.1351444779342754</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1754868929653939</v>
+        <v>0.1785175046823837</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>345589</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>319301</v>
+        <v>320353</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>370096</v>
+        <v>369237</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5619079816285369</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5191660928319828</v>
+        <v>0.5208762455216011</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6017551588014557</v>
+        <v>0.6003590177929272</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>296</v>
@@ -2564,19 +2564,19 @@
         <v>305622</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>280605</v>
+        <v>277574</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>330164</v>
+        <v>331078</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4788675909169585</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4396682637362299</v>
+        <v>0.4349200714583684</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5173201893954926</v>
+        <v>0.5187536062732427</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>623</v>
@@ -2585,19 +2585,19 @@
         <v>651211</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>614452</v>
+        <v>618326</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>686544</v>
+        <v>688872</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5196194313219261</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4902884708733347</v>
+        <v>0.4933795666209968</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5478125699051309</v>
+        <v>0.5496699029292553</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>165782</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>146569</v>
+        <v>145542</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>191020</v>
+        <v>190744</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.269552322849119</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.238313808650269</v>
+        <v>0.2366425643098598</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3105876799039443</v>
+        <v>0.3101387955563114</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>242</v>
@@ -2635,19 +2635,19 @@
         <v>242282</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>219060</v>
+        <v>217293</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>266241</v>
+        <v>266964</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3796220224929236</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3432370716401131</v>
+        <v>0.3404683280678838</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.417162325723486</v>
+        <v>0.4182946001974215</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>413</v>
@@ -2656,19 +2656,19 @@
         <v>408064</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>375103</v>
+        <v>374300</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>437752</v>
+        <v>442317</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3256056240286324</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2993053388583585</v>
+        <v>0.2986648261087868</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3492944723678953</v>
+        <v>0.352937148736428</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>115583</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>96814</v>
+        <v>96952</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>137391</v>
+        <v>136495</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1553966618987023</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1301627359886554</v>
+        <v>0.1303478162958177</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1847167948792061</v>
+        <v>0.1835122046088303</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>109</v>
@@ -2781,19 +2781,19 @@
         <v>115963</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>95944</v>
+        <v>96444</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>136465</v>
+        <v>137899</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1480045062196053</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1224536240129714</v>
+        <v>0.1230926325898524</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1741709833676403</v>
+        <v>0.1760015812932274</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>221</v>
@@ -2802,19 +2802,19 @@
         <v>231546</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>205225</v>
+        <v>203454</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>263302</v>
+        <v>261631</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1516044715127856</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1343705582338482</v>
+        <v>0.1332111105638185</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1723963581325346</v>
+        <v>0.1713021864151246</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>356030</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>326976</v>
+        <v>326627</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>381734</v>
+        <v>382788</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.478666217469951</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4396052550914568</v>
+        <v>0.4391358363794201</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5132247484731219</v>
+        <v>0.5146415467639247</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>340</v>
@@ -2852,19 +2852,19 @@
         <v>354762</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>328973</v>
+        <v>327855</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>385303</v>
+        <v>384588</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4527854546066921</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4198707254740874</v>
+        <v>0.41844345952862</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4917644843071413</v>
+        <v>0.4908520593582596</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>696</v>
@@ -2873,19 +2873,19 @@
         <v>710792</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>673212</v>
+        <v>667741</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>749468</v>
+        <v>745301</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4653893352760646</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4407838098815358</v>
+        <v>0.4372020581061201</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4907123664008496</v>
+        <v>0.4879843570207251</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>272182</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>248846</v>
+        <v>246437</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>300992</v>
+        <v>300695</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3659371206313467</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3345628332624894</v>
+        <v>0.33132402829101</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4046708336551396</v>
+        <v>0.4042707979463218</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>296</v>
@@ -2923,19 +2923,19 @@
         <v>312785</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>285348</v>
+        <v>284181</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>339520</v>
+        <v>340985</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3992100391737026</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3641913748697369</v>
+        <v>0.3627017669837319</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4333317507118756</v>
+        <v>0.4352012567166517</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>564</v>
@@ -2944,19 +2944,19 @@
         <v>584968</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>547414</v>
+        <v>547639</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>621629</v>
+        <v>623611</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3830061932111498</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3584180303714557</v>
+        <v>0.3585654088468941</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4070100966886029</v>
+        <v>0.4083075259483123</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>551408</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>506909</v>
+        <v>508010</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>596922</v>
+        <v>600688</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1682895266664256</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1547083909253991</v>
+        <v>0.1550446126267401</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1821803606201461</v>
+        <v>0.1833297997465004</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>452</v>
@@ -3069,19 +3069,19 @@
         <v>476412</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>434610</v>
+        <v>433795</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>516950</v>
+        <v>513047</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1409836667247915</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1286133334959173</v>
+        <v>0.1283723415061033</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1529800382582012</v>
+        <v>0.1518251782734777</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>979</v>
@@ -3090,19 +3090,19 @@
         <v>1027820</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>968555</v>
+        <v>968201</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1086548</v>
+        <v>1088661</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1544260224295014</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.145521768026678</v>
+        <v>0.1454685228849773</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1632497183662329</v>
+        <v>0.1635671674071846</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>1693412</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1636169</v>
+        <v>1639240</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1749888</v>
+        <v>1754871</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5168289865431085</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4993582209860148</v>
+        <v>0.500295582812433</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5340651849202904</v>
+        <v>0.5355859887156508</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1554</v>
@@ -3140,19 +3140,19 @@
         <v>1587673</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1521309</v>
+        <v>1522035</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1639756</v>
+        <v>1641193</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4698373352784287</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4501982972497479</v>
+        <v>0.4504131946474661</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4852502500580329</v>
+        <v>0.4856755405857938</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3203</v>
@@ -3161,19 +3161,19 @@
         <v>3281086</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3194861</v>
+        <v>3199496</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3358482</v>
+        <v>3357002</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4929707759685117</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4800158513507115</v>
+        <v>0.4807121853212329</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.504599287829434</v>
+        <v>0.5043769577009001</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>1031723</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>978151</v>
+        <v>981457</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1088073</v>
+        <v>1079146</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.314881486790466</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2985314059751181</v>
+        <v>0.2995405507662482</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3320794438032144</v>
+        <v>0.329355013090435</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1291</v>
@@ -3211,19 +3211,19 @@
         <v>1315113</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1262390</v>
+        <v>1262029</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1374457</v>
+        <v>1374349</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3891789979967798</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.373577040571679</v>
+        <v>0.3734701899052664</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.406740756405223</v>
+        <v>0.4067086439045391</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2329</v>
@@ -3232,19 +3232,19 @@
         <v>2346836</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2273571</v>
+        <v>2271059</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2423953</v>
+        <v>2423438</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3526032016019869</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3415954753050385</v>
+        <v>0.3412180620294918</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3641898200763027</v>
+        <v>0.364112409931976</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>41434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29859</v>
+        <v>30214</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56272</v>
+        <v>55256</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1413555840909305</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1018669174238415</v>
+        <v>0.1030786550850996</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1919770073785816</v>
+        <v>0.1885123712768707</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -3601,19 +3601,19 @@
         <v>31246</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20661</v>
+        <v>21750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43880</v>
+        <v>46213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1087784726388112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07192783249969034</v>
+        <v>0.07572086311517254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1527598598092823</v>
+        <v>0.1608852321952396</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -3622,19 +3622,19 @@
         <v>72680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56371</v>
+        <v>57189</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90501</v>
+        <v>91911</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1252318252295621</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09712991624167698</v>
+        <v>0.09854047056242798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1559381953996506</v>
+        <v>0.1583678488011106</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>163535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>146471</v>
+        <v>145551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182460</v>
+        <v>181371</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5579162840340509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.499701074268309</v>
+        <v>0.4965638495481436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6224820102895889</v>
+        <v>0.6187669035427116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>133</v>
@@ -3672,19 +3672,19 @@
         <v>151043</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>133770</v>
+        <v>133561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>169189</v>
+        <v>169430</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5258332145432526</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4657006444560793</v>
+        <v>0.4649735953232903</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5890045127346711</v>
+        <v>0.5898453052361134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>292</v>
@@ -3693,19 +3693,19 @@
         <v>314578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>289177</v>
+        <v>287031</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>339939</v>
+        <v>339588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5420370469579686</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4982699739883667</v>
+        <v>0.4945718790532769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5857355392576142</v>
+        <v>0.585131479502635</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>88149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71303</v>
+        <v>72971</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105689</v>
+        <v>105186</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3007281318750186</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2432565388036727</v>
+        <v>0.2489477337289451</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3605699090696508</v>
+        <v>0.3588545732733173</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>96</v>
@@ -3743,19 +3743,19 @@
         <v>104956</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87800</v>
+        <v>88236</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120669</v>
+        <v>121942</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3653883128179362</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3056621879109293</v>
+        <v>0.3071817795740317</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4200908903130596</v>
+        <v>0.424521279754324</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>179</v>
@@ -3764,19 +3764,19 @@
         <v>193105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>169111</v>
+        <v>172205</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>218342</v>
+        <v>217435</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3327311278124693</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2913881715455827</v>
+        <v>0.2967200573669218</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3762173173613164</v>
+        <v>0.3746532541325415</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>51255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38385</v>
+        <v>38579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68822</v>
+        <v>68049</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1013889432968949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07593021411397155</v>
+        <v>0.07631526982694914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1361388037183741</v>
+        <v>0.134609337960258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -3889,19 +3889,19 @@
         <v>50112</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37798</v>
+        <v>37282</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65319</v>
+        <v>63735</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09588021215823417</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07231846139369666</v>
+        <v>0.07133162383577851</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1249755350350612</v>
+        <v>0.1219443146750125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -3910,19 +3910,19 @@
         <v>101367</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>82459</v>
+        <v>81660</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>125173</v>
+        <v>123303</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09858869103340709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08019841402280015</v>
+        <v>0.07942113399688155</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1217419026087389</v>
+        <v>0.1199229685087509</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>278721</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>255680</v>
+        <v>255675</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>302347</v>
+        <v>302011</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5513474341853911</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5057700749345385</v>
+        <v>0.5057602282302951</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5980824557884294</v>
+        <v>0.5974176959435286</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>225</v>
@@ -3960,19 +3960,19 @@
         <v>246063</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>224325</v>
+        <v>222465</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>270820</v>
+        <v>270998</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4707926122084526</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4292015078775556</v>
+        <v>0.4256426002819794</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5181616746545411</v>
+        <v>0.51850078192175</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>486</v>
@@ -3981,19 +3981,19 @@
         <v>524784</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>492278</v>
+        <v>493379</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>563105</v>
+        <v>560290</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5103990166827319</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4787835793366442</v>
+        <v>0.4798544201206054</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5476695558103983</v>
+        <v>0.5449317723352854</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>175551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151849</v>
+        <v>153657</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196084</v>
+        <v>196236</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.347263622517714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3003781626115949</v>
+        <v>0.3039541630064639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3878798764878835</v>
+        <v>0.3881809734865147</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -4031,19 +4031,19 @@
         <v>226481</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204192</v>
+        <v>204624</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250234</v>
+        <v>250850</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4333271756333132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3906820615009359</v>
+        <v>0.3915071387798624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4787738183172215</v>
+        <v>0.4799533388473955</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>374</v>
@@ -4052,19 +4052,19 @@
         <v>402033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>365354</v>
+        <v>369006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>433785</v>
+        <v>432137</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.391012292283861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3553393535721125</v>
+        <v>0.358890654338532</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4218945688622887</v>
+        <v>0.4202916001017024</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>46648</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35017</v>
+        <v>34901</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60454</v>
+        <v>61473</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1439544942783463</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1080610198231671</v>
+        <v>0.1077023777215912</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1865603489084448</v>
+        <v>0.1897043417031789</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -4177,19 +4177,19 @@
         <v>47240</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34981</v>
+        <v>35403</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>61554</v>
+        <v>62045</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1385242696691052</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1025774936380709</v>
+        <v>0.1038141747465916</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1804982660311067</v>
+        <v>0.1819407235515817</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>86</v>
@@ -4198,19 +4198,19 @@
         <v>93887</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75213</v>
+        <v>75905</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>113814</v>
+        <v>114220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1411700860907894</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1130913439581425</v>
+        <v>0.1141309888663488</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1711322374189197</v>
+        <v>0.1717426833762492</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>171658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152912</v>
+        <v>152897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>188517</v>
+        <v>190546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5297333659056318</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4718833017944546</v>
+        <v>0.4718358454789692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5817609658512727</v>
+        <v>0.588020689050344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -4248,19 +4248,19 @@
         <v>137353</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>119108</v>
+        <v>119182</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>156894</v>
+        <v>154655</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4027706869192768</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3492683829805356</v>
+        <v>0.3494857044737184</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4600725154532395</v>
+        <v>0.4535073708089523</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>305</v>
@@ -4269,19 +4269,19 @@
         <v>309011</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>284058</v>
+        <v>280432</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>335487</v>
+        <v>331803</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4646318372723297</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4271129030954111</v>
+        <v>0.4216605643217684</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5044410229512948</v>
+        <v>0.4989030030386338</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>105740</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88919</v>
+        <v>88508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123538</v>
+        <v>122733</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3263121398160219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2744011045225325</v>
+        <v>0.2731346555377671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3812344712456844</v>
+        <v>0.3787515070203289</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>144</v>
@@ -4319,19 +4319,19 @@
         <v>156428</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137707</v>
+        <v>137794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175165</v>
+        <v>176411</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.458705043411618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4038095349508922</v>
+        <v>0.4040646408060326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5136504036380666</v>
+        <v>0.517304141315966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -4340,19 +4340,19 @@
         <v>262168</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>238080</v>
+        <v>238120</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>287654</v>
+        <v>288043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.394198076636881</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3579788004121445</v>
+        <v>0.358039951612006</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4325193566353691</v>
+        <v>0.4331043494781632</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>44468</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32785</v>
+        <v>33057</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58396</v>
+        <v>59098</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1189039040048009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08766576818719729</v>
+        <v>0.08839251767365985</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.156147372545104</v>
+        <v>0.1580246268007661</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -4465,19 +4465,19 @@
         <v>62634</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49461</v>
+        <v>48426</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78570</v>
+        <v>78294</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.161033955172431</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1271657667214333</v>
+        <v>0.1245048969855235</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2020058002279718</v>
+        <v>0.2012948031412194</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -4486,19 +4486,19 @@
         <v>107102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87513</v>
+        <v>89269</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127177</v>
+        <v>128683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1403822290718113</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1147059374814214</v>
+        <v>0.1170081776753509</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1666942094685885</v>
+        <v>0.1686694031525214</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>246209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>226316</v>
+        <v>225543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>265533</v>
+        <v>264735</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6583445310097883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6051524551986864</v>
+        <v>0.60308617287065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7100159148398432</v>
+        <v>0.707882992185382</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -4536,19 +4536,19 @@
         <v>187021</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167115</v>
+        <v>167236</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208123</v>
+        <v>206079</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4808355004135079</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4296555976238561</v>
+        <v>0.429967459392121</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5350869363946781</v>
+        <v>0.5298335209288267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>403</v>
@@ -4557,19 +4557,19 @@
         <v>433230</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407490</v>
+        <v>404397</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>463067</v>
+        <v>462314</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5678486366111092</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5341101433958593</v>
+        <v>0.5300551238817491</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6069565965083666</v>
+        <v>0.6059690659077545</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>83305</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66626</v>
+        <v>67530</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>101351</v>
+        <v>99586</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2227515649854108</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1781538789570776</v>
+        <v>0.1805693643607293</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2710044898798168</v>
+        <v>0.2662848528973362</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>134</v>
@@ -4607,19 +4607,19 @@
         <v>139295</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>117565</v>
+        <v>121728</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>157724</v>
+        <v>161082</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3581305444140611</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.302261030585365</v>
+        <v>0.3129651759341626</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.405510816809475</v>
+        <v>0.4141437021611413</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>212</v>
@@ -4628,19 +4628,19 @@
         <v>222600</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>194844</v>
+        <v>197581</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>245876</v>
+        <v>248583</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2917691343170796</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2553886511461392</v>
+        <v>0.2589752854101955</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3222772179379799</v>
+        <v>0.3258259300948912</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>31091</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21064</v>
+        <v>21056</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44369</v>
+        <v>43940</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1462307003273546</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09906982385924477</v>
+        <v>0.0990322221731767</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2086812310095576</v>
+        <v>0.2066616097517306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -4753,19 +4753,19 @@
         <v>26476</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18057</v>
+        <v>18011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38398</v>
+        <v>37072</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1205692100244192</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08223156857818728</v>
+        <v>0.08202182568487813</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1748620406548209</v>
+        <v>0.1688211531085557</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -4774,19 +4774,19 @@
         <v>57567</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44775</v>
+        <v>44094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73685</v>
+        <v>72804</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1331929528397471</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1035958175001469</v>
+        <v>0.1020198935821405</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1704856720856668</v>
+        <v>0.168445723254235</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>138680</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>125239</v>
+        <v>123607</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>154311</v>
+        <v>152624</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6522495212330292</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5890352052033566</v>
+        <v>0.5813551696849453</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7257657255663964</v>
+        <v>0.7178320820481207</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>110</v>
@@ -4824,19 +4824,19 @@
         <v>115500</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>100005</v>
+        <v>99834</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>130671</v>
+        <v>130143</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5259763381743713</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4554169079292469</v>
+        <v>0.4546380535658823</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5950654893334252</v>
+        <v>0.5926601876873712</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>238</v>
@@ -4845,19 +4845,19 @@
         <v>254180</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>232588</v>
+        <v>232464</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>273388</v>
+        <v>275141</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5880943277606183</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5381387359329326</v>
+        <v>0.5378507716124407</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.632535580703913</v>
+        <v>0.6365930897933203</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>42847</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30370</v>
+        <v>31978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56087</v>
+        <v>55622</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2015197784396163</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1428370310391064</v>
+        <v>0.1504009413070375</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2637923010007041</v>
+        <v>0.2616040911469548</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -4895,19 +4895,19 @@
         <v>77615</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64026</v>
+        <v>64135</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92527</v>
+        <v>93271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3534544518012095</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2915691649059547</v>
+        <v>0.2920658407457511</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4213619474380993</v>
+        <v>0.4247504005590029</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>115</v>
@@ -4916,19 +4916,19 @@
         <v>120462</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>101678</v>
+        <v>103151</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138752</v>
+        <v>139823</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2787127193996346</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2352514859712039</v>
+        <v>0.238659861030506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3210288227815702</v>
+        <v>0.3235073886105254</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>39718</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28763</v>
+        <v>28774</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53249</v>
+        <v>55235</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1454749071899334</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1053519797820936</v>
+        <v>0.1053912848973718</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1950368192462108</v>
+        <v>0.2023114926451282</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -5041,19 +5041,19 @@
         <v>35233</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24371</v>
+        <v>25090</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47077</v>
+        <v>49078</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1262953645749537</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08736049403913176</v>
+        <v>0.08993520997451951</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1687509123417134</v>
+        <v>0.1759231854023849</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -5062,19 +5062,19 @@
         <v>74951</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>58712</v>
+        <v>57978</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92712</v>
+        <v>92579</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1357817232164406</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1063632003769896</v>
+        <v>0.1050335859825794</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1679570064576116</v>
+        <v>0.1677173903101195</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>137447</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>120264</v>
+        <v>120599</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>153896</v>
+        <v>155554</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5034294984044266</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4404927419406502</v>
+        <v>0.4417204892775437</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5636762154106209</v>
+        <v>0.5697475179515221</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>108</v>
@@ -5112,19 +5112,19 @@
         <v>112533</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>96432</v>
+        <v>96346</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128845</v>
+        <v>129578</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4033796015744013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3456671646505428</v>
+        <v>0.3453557043604408</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4618509627355464</v>
+        <v>0.464479335815744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>240</v>
@@ -5133,19 +5133,19 @@
         <v>249980</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>227605</v>
+        <v>226115</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>273471</v>
+        <v>274842</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4528650988266718</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4123307593886056</v>
+        <v>0.4096305937522468</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4954205014878453</v>
+        <v>0.4979056119757729</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>95857</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>80775</v>
+        <v>80199</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>112297</v>
+        <v>113091</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.35109559440564</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2958546347264913</v>
+        <v>0.2937438058495038</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4113122611469924</v>
+        <v>0.4142195076397893</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>128</v>
@@ -5183,19 +5183,19 @@
         <v>131209</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>114370</v>
+        <v>114054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148115</v>
+        <v>147408</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4703250338506449</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4099661311354227</v>
+        <v>0.408834009647862</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5309248937923341</v>
+        <v>0.528390741399286</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>222</v>
@@ -5204,19 +5204,19 @@
         <v>227066</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>201588</v>
+        <v>205686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>249083</v>
+        <v>249827</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4113531779568877</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3651973221312994</v>
+        <v>0.3726214695825107</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4512402887248663</v>
+        <v>0.4525868965480307</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>116071</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>96169</v>
+        <v>97911</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>136272</v>
+        <v>138097</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.175478680507566</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1453898599548169</v>
+        <v>0.1480238354741381</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2060184320717284</v>
+        <v>0.2087786080008465</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>87</v>
@@ -5329,19 +5329,19 @@
         <v>98933</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>81165</v>
+        <v>83144</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>118299</v>
+        <v>119897</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1427798154622643</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1171371927104611</v>
+        <v>0.1199924481348548</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1707276765913856</v>
+        <v>0.173034811309477</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>193</v>
@@ -5350,19 +5350,19 @@
         <v>215004</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>185806</v>
+        <v>187558</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>246256</v>
+        <v>245537</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1587495364862281</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1371908860654616</v>
+        <v>0.1384843727182355</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1818243903828486</v>
+        <v>0.1812932579052971</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>353167</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>326934</v>
+        <v>325111</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>381166</v>
+        <v>380125</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5339256410617873</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.494266206065386</v>
+        <v>0.491509623386237</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5762556186498197</v>
+        <v>0.574681154469147</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>319</v>
@@ -5400,19 +5400,19 @@
         <v>346189</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>318878</v>
+        <v>317946</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>372028</v>
+        <v>372581</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4996171378178561</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4602026817112375</v>
+        <v>0.4588567438074038</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5369089062159427</v>
+        <v>0.5377068614480114</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>652</v>
@@ -5421,19 +5421,19 @@
         <v>699355</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>659774</v>
+        <v>661216</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>738490</v>
+        <v>736885</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5163729862179847</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4871477744386719</v>
+        <v>0.4882128866344917</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5452680102017212</v>
+        <v>0.5440830007383223</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>192215</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>167615</v>
+        <v>168033</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>215912</v>
+        <v>217984</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2905956784306468</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2534048922193646</v>
+        <v>0.2540367018306021</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3264210825269374</v>
+        <v>0.3295535234003045</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>229</v>
@@ -5471,19 +5471,19 @@
         <v>247786</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>221796</v>
+        <v>222274</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>275562</v>
+        <v>274958</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3576030467198796</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3200942775510701</v>
+        <v>0.3207842028858016</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3976886849406887</v>
+        <v>0.3968169039193482</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>407</v>
@@ -5492,19 +5492,19 @@
         <v>440001</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>402468</v>
+        <v>405404</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>472678</v>
+        <v>478581</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3248774772957873</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2971643340471323</v>
+        <v>0.2993319816184844</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3490047722435433</v>
+        <v>0.3533629523017889</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>110497</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>91000</v>
+        <v>92248</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>130771</v>
+        <v>131758</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1423900070087878</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1172655215079433</v>
+        <v>0.118873646991031</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1685157472884529</v>
+        <v>0.1697876871187295</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>93</v>
@@ -5617,19 +5617,19 @@
         <v>106756</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>88284</v>
+        <v>85460</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>129423</v>
+        <v>127292</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1297343481969687</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1072854810445381</v>
+        <v>0.1038543288682444</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1572797731228576</v>
+        <v>0.1546906931724576</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>194</v>
@@ -5638,19 +5638,19 @@
         <v>217253</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>189784</v>
+        <v>188933</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>246511</v>
+        <v>242828</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.135876692531478</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1186965215760466</v>
+        <v>0.1181643893486157</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1541750190748946</v>
+        <v>0.1518721098311243</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>474540</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>445831</v>
+        <v>444878</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>501988</v>
+        <v>499583</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6115081785819686</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5745125262192791</v>
+        <v>0.573284928249629</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6468790547255097</v>
+        <v>0.6437787133357424</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>431</v>
@@ -5688,19 +5688,19 @@
         <v>462101</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>433247</v>
+        <v>432386</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>491297</v>
+        <v>490336</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5615632640614174</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5264979896918517</v>
+        <v>0.5254518318374336</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5970424466568668</v>
+        <v>0.5958746221314636</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>875</v>
@@ -5709,19 +5709,19 @@
         <v>936642</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>891545</v>
+        <v>896693</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>975845</v>
+        <v>975954</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.585803713911121</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5575988487451589</v>
+        <v>0.5608184324629458</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6103223021490564</v>
+        <v>0.6103906802599558</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>190979</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>166976</v>
+        <v>167356</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>216612</v>
+        <v>217882</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2461018144092436</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2151703638532314</v>
+        <v>0.2156599650014058</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2791330548576831</v>
+        <v>0.2807699352732401</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>232</v>
@@ -5759,19 +5759,19 @@
         <v>254026</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>228443</v>
+        <v>227296</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>282540</v>
+        <v>282226</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3087023877416139</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2776127415488283</v>
+        <v>0.276218967675772</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3433537471768814</v>
+        <v>0.3429716453430926</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>401</v>
@@ -5780,19 +5780,19 @@
         <v>445005</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>411700</v>
+        <v>409302</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>484904</v>
+        <v>482091</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.278319593557401</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2574896243602666</v>
+        <v>0.2559894266533745</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3032732749418372</v>
+        <v>0.3015139573870171</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>481181</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>440249</v>
+        <v>439111</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>528073</v>
+        <v>529490</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.140705301530565</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1287360753238463</v>
+        <v>0.1284032854826844</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1544171222528681</v>
+        <v>0.1548316377907666</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>412</v>
@@ -5905,19 +5905,19 @@
         <v>458631</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>418494</v>
+        <v>413777</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>500358</v>
+        <v>504419</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1290380895694999</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1177452661646739</v>
+        <v>0.1164180780251009</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1407780941734813</v>
+        <v>0.1419206460135314</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>850</v>
@@ -5926,19 +5926,19 @@
         <v>939813</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>884723</v>
+        <v>876323</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>996977</v>
+        <v>998708</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1347592324222216</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1268600297609699</v>
+        <v>0.1256555708675584</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.142956055376974</v>
+        <v>0.1432042837635524</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>1963957</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1902976</v>
+        <v>1906248</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2022971</v>
+        <v>2026746</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5742931829222782</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5564610641889376</v>
+        <v>0.5574179987410185</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5915497691751744</v>
+        <v>0.5926535126403256</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1635</v>
@@ -5976,19 +5976,19 @@
         <v>1757803</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1700216</v>
+        <v>1699273</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1822466</v>
+        <v>1822405</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4945663375536714</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4783642047066977</v>
+        <v>0.4780987805318888</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5127597080087322</v>
+        <v>0.512742430906509</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3491</v>
@@ -5997,19 +5997,19 @@
         <v>3721760</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3635991</v>
+        <v>3633947</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3810982</v>
+        <v>3806784</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5336612535518388</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5213629166832029</v>
+        <v>0.5210697731375737</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5464548128971476</v>
+        <v>0.5458528711921562</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>974643</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>917115</v>
+        <v>918164</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1027451</v>
+        <v>1031998</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2850015155471569</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2681793594911166</v>
+        <v>0.2684861760847969</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3004434850385819</v>
+        <v>0.3017728927034498</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1247</v>
@@ -6047,19 +6047,19 @@
         <v>1337796</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1277582</v>
+        <v>1278235</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1395093</v>
+        <v>1401578</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3763955728768287</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3594539097542522</v>
+        <v>0.3596376603576684</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.392516265551095</v>
+        <v>0.3943408754051267</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2155</v>
@@ -6068,19 +6068,19 @@
         <v>2312440</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2227632</v>
+        <v>2242443</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2389839</v>
+        <v>2397906</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3315795140259396</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3194190672102404</v>
+        <v>0.3215427808586468</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.342677832818108</v>
+        <v>0.3438344719226277</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>31350</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20540</v>
+        <v>21282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43434</v>
+        <v>44274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1074479098595183</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07039797990372409</v>
+        <v>0.07294128216978787</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1488645127272003</v>
+        <v>0.1517435708228781</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -6437,19 +6437,19 @@
         <v>54564</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41636</v>
+        <v>41405</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69487</v>
+        <v>68672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1896156141067661</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1446903847487165</v>
+        <v>0.1438886274105739</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2414751943462818</v>
+        <v>0.2386426475063113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -6458,19 +6458,19 @@
         <v>85913</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68529</v>
+        <v>69664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104424</v>
+        <v>105849</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1482477419098572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1182498532954114</v>
+        <v>0.1202083543158323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1801893312000646</v>
+        <v>0.1826484163895124</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>179384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>160461</v>
+        <v>161890</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>196188</v>
+        <v>195867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6148224704746624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5499650141534662</v>
+        <v>0.5548624543557457</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6724169586848155</v>
+        <v>0.6713158120986633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>148</v>
@@ -6508,19 +6508,19 @@
         <v>149269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>131481</v>
+        <v>132399</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166919</v>
+        <v>165383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5187261089149636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4569119605148061</v>
+        <v>0.4601035685723672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5800636623963354</v>
+        <v>0.5747248658066034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>306</v>
@@ -6529,19 +6529,19 @@
         <v>328652</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>305826</v>
+        <v>303525</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>355566</v>
+        <v>350279</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5671064554271119</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5277181049613465</v>
+        <v>0.5237480686089822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6135465668153932</v>
+        <v>0.6044250750818669</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>81032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65918</v>
+        <v>66744</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98299</v>
+        <v>96083</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2777296196658193</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2259259691553376</v>
+        <v>0.2287592953821476</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3369119320055287</v>
+        <v>0.3293135886796135</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>79</v>
@@ -6579,19 +6579,19 @@
         <v>83928</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68907</v>
+        <v>69743</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>101375</v>
+        <v>101665</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2916582769782703</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2394583078666283</v>
+        <v>0.2423644991160721</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3522907104614999</v>
+        <v>0.3532989188678914</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>157</v>
@@ -6600,19 +6600,19 @@
         <v>164959</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>141183</v>
+        <v>143675</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>188315</v>
+        <v>186107</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2846458026630309</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2436190069394595</v>
+        <v>0.2479188915581594</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3249475659782073</v>
+        <v>0.3211372168149232</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>47344</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34390</v>
+        <v>36061</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61416</v>
+        <v>62944</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09420345423173832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06842732383560228</v>
+        <v>0.0717515012459668</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1222032539937077</v>
+        <v>0.1252434405870301</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -6725,19 +6725,19 @@
         <v>55583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42049</v>
+        <v>41265</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70944</v>
+        <v>71017</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1062599132901968</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08038678729553321</v>
+        <v>0.07888863108248845</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1356255683080126</v>
+        <v>0.1357663770299291</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>98</v>
@@ -6746,19 +6746,19 @@
         <v>102927</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>85706</v>
+        <v>84345</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>124413</v>
+        <v>122665</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1003522216165206</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08356151544114347</v>
+        <v>0.08223467830411661</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1213007138248762</v>
+        <v>0.1195966791683084</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>332819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>310238</v>
+        <v>310063</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>352912</v>
+        <v>352271</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6622285088250404</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6172973939664401</v>
+        <v>0.6169481750935993</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7022081783813598</v>
+        <v>0.7009324403685908</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>273</v>
@@ -6796,19 +6796,19 @@
         <v>288240</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>263960</v>
+        <v>265913</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>310279</v>
+        <v>310838</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5510392712438182</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5046227944704005</v>
+        <v>0.5083568334956331</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5931727209418168</v>
+        <v>0.5942417441305259</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>584</v>
@@ -6817,19 +6817,19 @@
         <v>621059</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>588934</v>
+        <v>588606</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>651426</v>
+        <v>651866</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6055222442192163</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5742010193593605</v>
+        <v>0.5738811649611451</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6351292789964599</v>
+        <v>0.6355577736178695</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>122411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104254</v>
+        <v>105287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142398</v>
+        <v>142810</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2435680369432213</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2074389559319119</v>
+        <v>0.2094945978549362</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2833364010113859</v>
+        <v>0.2841561045512624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -6867,19 +6867,19 @@
         <v>179261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158066</v>
+        <v>157933</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>204167</v>
+        <v>201475</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.342700815465985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3021806331369893</v>
+        <v>0.3019271271559694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3903133755709924</v>
+        <v>0.3851684471831845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>277</v>
@@ -6888,19 +6888,19 @@
         <v>301673</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>271520</v>
+        <v>272979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>331179</v>
+        <v>331271</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.294125534164263</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2647277809598466</v>
+        <v>0.2661499487541726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3228943071049795</v>
+        <v>0.3229839472840245</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>46279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34789</v>
+        <v>35756</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59319</v>
+        <v>59620</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.145272102258222</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1092043901843685</v>
+        <v>0.1122406091067997</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1862055197739168</v>
+        <v>0.1871520002406379</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -7013,19 +7013,19 @@
         <v>55295</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42465</v>
+        <v>42864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70511</v>
+        <v>69330</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1644164137984421</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1262685274443177</v>
+        <v>0.127455313737578</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2096616864624835</v>
+        <v>0.2061499867057128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>103</v>
@@ -7034,19 +7034,19 @@
         <v>101573</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>86654</v>
+        <v>84715</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>122094</v>
+        <v>120288</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1551036184154392</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1323209752302397</v>
+        <v>0.12936069842076</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1864393810346498</v>
+        <v>0.1836815788435294</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>198919</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>182159</v>
+        <v>182424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>214000</v>
+        <v>216010</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.624421151593009</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5718121474287214</v>
+        <v>0.5726422099430324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6717628542333549</v>
+        <v>0.6780718273217463</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>185</v>
@@ -7084,19 +7084,19 @@
         <v>181426</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164177</v>
+        <v>162349</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>202399</v>
+        <v>199439</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5394612393637721</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.488171659119968</v>
+        <v>0.4827364696721148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6018259554045613</v>
+        <v>0.5930233587445534</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>391</v>
@@ -7105,19 +7105,19 @@
         <v>380344</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>353500</v>
+        <v>354470</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>404071</v>
+        <v>404650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5807901885237621</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5397986033818666</v>
+        <v>0.5412802394968818</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6170206631407221</v>
+        <v>0.6179044933609593</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>73368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59588</v>
+        <v>59806</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87941</v>
+        <v>89183</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.230306746148769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1870520966109628</v>
+        <v>0.1877356319539519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2760536980939188</v>
+        <v>0.2799525271009952</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -7155,19 +7155,19 @@
         <v>99589</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81378</v>
+        <v>82737</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>117629</v>
+        <v>117103</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2961223468377858</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2419751178066187</v>
+        <v>0.2460149310611487</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.349764411616405</v>
+        <v>0.3482012639281466</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -7176,19 +7176,19 @@
         <v>172956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>150633</v>
+        <v>151942</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>195648</v>
+        <v>196158</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2641061930607986</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2300181446295072</v>
+        <v>0.2320177343683689</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2987565118932609</v>
+        <v>0.2995347703253199</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>68168</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53576</v>
+        <v>54358</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84914</v>
+        <v>84239</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1851728654983123</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1455332936972914</v>
+        <v>0.1476595221382123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2306599525677517</v>
+        <v>0.2288263542461193</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -7301,19 +7301,19 @@
         <v>65628</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52293</v>
+        <v>50899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82929</v>
+        <v>82225</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1705531167665472</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1358966478495605</v>
+        <v>0.1322739506233131</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2155143219834861</v>
+        <v>0.2136846311485961</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>124</v>
@@ -7322,19 +7322,19 @@
         <v>133797</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113500</v>
+        <v>112680</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156973</v>
+        <v>156474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1777012196561054</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1507443689471288</v>
+        <v>0.1496551364662288</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2084822901913677</v>
+        <v>0.2078202100169758</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>218390</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198534</v>
+        <v>198039</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>237636</v>
+        <v>237091</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5932352378596293</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5392979115546307</v>
+        <v>0.5379535449602115</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6455155361912439</v>
+        <v>0.6440338454940346</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -7372,19 +7372,19 @@
         <v>201048</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>181262</v>
+        <v>180091</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222827</v>
+        <v>221766</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5224770658409094</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4710578919749707</v>
+        <v>0.4680166988967039</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5790771602621076</v>
+        <v>0.5763182308581078</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>394</v>
@@ -7393,19 +7393,19 @@
         <v>419438</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391081</v>
+        <v>387707</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>446907</v>
+        <v>444960</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5570731935272842</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.51941179413557</v>
+        <v>0.5149307068913538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5935562046531589</v>
+        <v>0.5909706094987601</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>81576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>65642</v>
+        <v>67490</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97494</v>
+        <v>99401</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2215918966420584</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1783112997233965</v>
+        <v>0.1833300891733478</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2648317945742064</v>
+        <v>0.2700144227011286</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>105</v>
@@ -7443,19 +7443,19 @@
         <v>118121</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98786</v>
+        <v>100818</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>137070</v>
+        <v>139316</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3069698173925434</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2567229855166231</v>
+        <v>0.2620031918499906</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3562132555905403</v>
+        <v>0.3620508137990675</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>190</v>
@@ -7464,19 +7464,19 @@
         <v>199697</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>178301</v>
+        <v>175242</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>225005</v>
+        <v>224839</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2652255868166104</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2368090780562731</v>
+        <v>0.2327468956556598</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2988385260845632</v>
+        <v>0.2986186925800974</v>
       </c>
     </row>
     <row r="19">
@@ -7568,19 +7568,19 @@
         <v>26004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18185</v>
+        <v>16990</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37525</v>
+        <v>37604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1257600965955826</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08794516083479023</v>
+        <v>0.08216630314063461</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1814826716303063</v>
+        <v>0.1818621028694508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -7589,19 +7589,19 @@
         <v>13508</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7933</v>
+        <v>7783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22441</v>
+        <v>21335</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06265314122794857</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03679367458220344</v>
+        <v>0.0360983819916438</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1040854773849239</v>
+        <v>0.09895546682683572</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -7610,19 +7610,19 @@
         <v>39511</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28690</v>
+        <v>29102</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53423</v>
+        <v>51966</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0935472347882257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06792716862804901</v>
+        <v>0.06890260404035584</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1264836301059671</v>
+        <v>0.1230343290655316</v>
       </c>
     </row>
     <row r="21">
@@ -7639,19 +7639,19 @@
         <v>99063</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>85417</v>
+        <v>82357</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>113901</v>
+        <v>112694</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.479096361475841</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4130999582043581</v>
+        <v>0.3983004689828591</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5508570914543008</v>
+        <v>0.5450179389692164</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>120</v>
@@ -7660,19 +7660,19 @@
         <v>117297</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>104337</v>
+        <v>102415</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>131980</v>
+        <v>130320</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5440557495241521</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4839464051528559</v>
+        <v>0.4750278946517361</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6121585721384655</v>
+        <v>0.6044632833184489</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>217</v>
@@ -7681,19 +7681,19 @@
         <v>216360</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>197477</v>
+        <v>196095</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>235998</v>
+        <v>237720</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5122547950922396</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4675483809311621</v>
+        <v>0.4642742793441227</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5587499507216876</v>
+        <v>0.5628272921036735</v>
       </c>
     </row>
     <row r="22">
@@ -7710,19 +7710,19 @@
         <v>81704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68298</v>
+        <v>67991</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94854</v>
+        <v>97271</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3951435419285764</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3303054387427689</v>
+        <v>0.3288250725565389</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4587394975819413</v>
+        <v>0.4704300473436167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -7731,19 +7731,19 @@
         <v>84792</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70966</v>
+        <v>72292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98089</v>
+        <v>100406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3932911092478993</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3291610927930046</v>
+        <v>0.3353108268762555</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4549665853960553</v>
+        <v>0.4657114670952723</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -7752,19 +7752,19 @@
         <v>166497</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>148727</v>
+        <v>144476</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>185753</v>
+        <v>184684</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3941979701195348</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3521259036834096</v>
+        <v>0.3420616496420799</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4397893913518605</v>
+        <v>0.4372583511740017</v>
       </c>
     </row>
     <row r="23">
@@ -7856,19 +7856,19 @@
         <v>42838</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31490</v>
+        <v>31686</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55457</v>
+        <v>55244</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.162804915136486</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1196767221520059</v>
+        <v>0.120423356997221</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2107635324732118</v>
+        <v>0.2099558268262576</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -7877,19 +7877,19 @@
         <v>36801</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26386</v>
+        <v>26956</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49281</v>
+        <v>50832</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1347471114409136</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09661304697293716</v>
+        <v>0.09869689224802169</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1804419914724301</v>
+        <v>0.1861196787120635</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>78</v>
@@ -7898,19 +7898,19 @@
         <v>79639</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64990</v>
+        <v>64518</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96444</v>
+        <v>98946</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1485146054717182</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1211956269455498</v>
+        <v>0.1203162957152939</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.179853656121464</v>
+        <v>0.1845183015366196</v>
       </c>
     </row>
     <row r="25">
@@ -7927,19 +7927,19 @@
         <v>143439</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>126452</v>
+        <v>128010</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>158343</v>
+        <v>160859</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5451420456498963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4805800583820191</v>
+        <v>0.4865013808463924</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6017850434207654</v>
+        <v>0.6113434651991476</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>145</v>
@@ -7948,19 +7948,19 @@
         <v>145707</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>128928</v>
+        <v>128728</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>163795</v>
+        <v>162531</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5334998882405089</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4720647164302031</v>
+        <v>0.4713339734424261</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5997303117006448</v>
+        <v>0.595100771366284</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>284</v>
@@ -7969,19 +7969,19 @@
         <v>289146</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>265296</v>
+        <v>267449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>309452</v>
+        <v>312158</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5392124997613003</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4947362013601783</v>
+        <v>0.4987505468000763</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5770789023949966</v>
+        <v>0.5821256365688835</v>
       </c>
     </row>
     <row r="26">
@@ -7998,19 +7998,19 @@
         <v>76846</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63189</v>
+        <v>62362</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>91373</v>
+        <v>91149</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2920530392136176</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2401499697212992</v>
+        <v>0.2370065223974791</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3472645121706656</v>
+        <v>0.3464130183691436</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>81</v>
@@ -8019,19 +8019,19 @@
         <v>90607</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75396</v>
+        <v>74200</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>107268</v>
+        <v>107770</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3317530003185775</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2760606174567128</v>
+        <v>0.2716802435730247</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3927567466244641</v>
+        <v>0.3945957062357829</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>160</v>
@@ -8040,19 +8040,19 @@
         <v>167453</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>149109</v>
+        <v>146015</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>189514</v>
+        <v>189178</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3122728947669816</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2780654068921077</v>
+        <v>0.2722944543107684</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3534144657458095</v>
+        <v>0.3527882524788563</v>
       </c>
     </row>
     <row r="27">
@@ -8144,19 +8144,19 @@
         <v>150134</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>126825</v>
+        <v>129136</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>173677</v>
+        <v>173245</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2294055693058026</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1937892935486425</v>
+        <v>0.197319932361035</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2653782596129321</v>
+        <v>0.2647186363398401</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>140</v>
@@ -8165,19 +8165,19 @@
         <v>144689</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>125833</v>
+        <v>125020</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>167271</v>
+        <v>166366</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2093016852609769</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1820246212255218</v>
+        <v>0.1808491733465941</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2419682884684258</v>
+        <v>0.2406594900294236</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>266</v>
@@ -8186,19 +8186,19 @@
         <v>294823</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>267863</v>
+        <v>263752</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>329730</v>
+        <v>331049</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2190784220391207</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1990442547261837</v>
+        <v>0.1959897226304052</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2450168414171562</v>
+        <v>0.2459973561360151</v>
       </c>
     </row>
     <row r="29">
@@ -8215,19 +8215,19 @@
         <v>400128</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>373115</v>
+        <v>373325</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>427391</v>
+        <v>424116</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6113963491074541</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5701206087163964</v>
+        <v>0.5704410726402024</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6530540656883144</v>
+        <v>0.6480492940277119</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>366</v>
@@ -8236,19 +8236,19 @@
         <v>386096</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>360552</v>
+        <v>359486</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>412310</v>
+        <v>413450</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5585117006782839</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5215609619894208</v>
+        <v>0.5200187432293431</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5964325180522847</v>
+        <v>0.5980812312083179</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>717</v>
@@ -8257,19 +8257,19 @@
         <v>786224</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>746345</v>
+        <v>746670</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>820336</v>
+        <v>821876</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5842300785869423</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5545964378182687</v>
+        <v>0.5548383080257621</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6095781431709173</v>
+        <v>0.6107222618596266</v>
       </c>
     </row>
     <row r="30">
@@ -8286,19 +8286,19 @@
         <v>104187</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>87386</v>
+        <v>86120</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>124342</v>
+        <v>124353</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1591980815867433</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1335257941545406</v>
+        <v>0.1315913623547132</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1899943373205097</v>
+        <v>0.1900120436279113</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>140</v>
@@ -8307,19 +8307,19 @@
         <v>160509</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>138042</v>
+        <v>136184</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>184711</v>
+        <v>183118</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2321866140607391</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1996864448224885</v>
+        <v>0.1969983752812699</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2671962054651488</v>
+        <v>0.264891999949777</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>241</v>
@@ -8328,19 +8328,19 @@
         <v>264696</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>233297</v>
+        <v>237799</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>294768</v>
+        <v>296076</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1966914993739369</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1733588191478932</v>
+        <v>0.1767043540073293</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2190368967989483</v>
+        <v>0.2200095057626115</v>
       </c>
     </row>
     <row r="31">
@@ -8432,19 +8432,19 @@
         <v>134770</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>116059</v>
+        <v>115520</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>157119</v>
+        <v>160085</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.174519077923805</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1502900541647724</v>
+        <v>0.1495925954911515</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2034605694565188</v>
+        <v>0.2073008601412726</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>114</v>
@@ -8453,19 +8453,19 @@
         <v>123073</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>103339</v>
+        <v>103282</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>146479</v>
+        <v>143373</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1500618985574054</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1260008314082948</v>
+        <v>0.1259319406068918</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1786011762111893</v>
+        <v>0.1748145044252601</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>241</v>
@@ -8474,19 +8474,19 @@
         <v>257842</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>228284</v>
+        <v>226720</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>288603</v>
+        <v>288872</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1619225580433818</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1433601925262656</v>
+        <v>0.1423783337031094</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1812399706422069</v>
+        <v>0.1814090617005354</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>504241</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>476795</v>
+        <v>473564</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>529754</v>
+        <v>530089</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6529645008819419</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6174229301816494</v>
+        <v>0.6132384248377009</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6860012721459819</v>
+        <v>0.6864360163495786</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>481</v>
@@ -8524,19 +8524,19 @@
         <v>519219</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>489808</v>
+        <v>492715</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>547277</v>
+        <v>546460</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6330821152070589</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5972211859997856</v>
+        <v>0.600765381709202</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6672925708241114</v>
+        <v>0.666296349145771</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>967</v>
@@ -8545,19 +8545,19 @@
         <v>1023460</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>983815</v>
+        <v>985858</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1063055</v>
+        <v>1058634</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6427242003684663</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6178278565378479</v>
+        <v>0.6191104794352724</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6675895211024743</v>
+        <v>0.664813159011266</v>
       </c>
     </row>
     <row r="34">
@@ -8574,19 +8574,19 @@
         <v>133223</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>113894</v>
+        <v>113634</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>155646</v>
+        <v>155561</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.172516421194253</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1474863445693287</v>
+        <v>0.1471498001497984</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2015523386644694</v>
+        <v>0.2014434677893547</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>154</v>
@@ -8595,19 +8595,19 @@
         <v>177853</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>155634</v>
+        <v>153079</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>204499</v>
+        <v>201847</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2168559862355357</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1897645786818383</v>
+        <v>0.1866483379773909</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2493450246147088</v>
+        <v>0.2461110137007764</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>285</v>
@@ -8616,19 +8616,19 @@
         <v>311076</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>277391</v>
+        <v>278987</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>342184</v>
+        <v>344806</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1953532415881519</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1741992854540479</v>
+        <v>0.1752016993756641</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2148884185115107</v>
+        <v>0.216534979383059</v>
       </c>
     </row>
     <row r="35">
@@ -8720,19 +8720,19 @@
         <v>546886</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>500889</v>
+        <v>498380</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>591179</v>
+        <v>589637</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1619147729998532</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1482965534860588</v>
+        <v>0.1475535614017656</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1750284842773129</v>
+        <v>0.1745719272684658</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>526</v>
@@ -8741,19 +8741,19 @@
         <v>549140</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>505017</v>
+        <v>507052</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>593009</v>
+        <v>599698</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1554713327523181</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1429793028985918</v>
+        <v>0.1435553678654102</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1678914263549025</v>
+        <v>0.1697852218355065</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1027</v>
@@ -8762,19 +8762,19 @@
         <v>1096027</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1034521</v>
+        <v>1035501</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1153671</v>
+        <v>1161098</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1586210239150958</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1497196513775693</v>
+        <v>0.1498615711703657</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1669635909264165</v>
+        <v>0.1680383614090235</v>
       </c>
     </row>
     <row r="37">
@@ -8791,19 +8791,19 @@
         <v>2076385</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2020474</v>
+        <v>2020371</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2133572</v>
+        <v>2139052</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6147483054432877</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5981948186280931</v>
+        <v>0.5981643183875471</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6316795673022928</v>
+        <v>0.63330202177902</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1908</v>
@@ -8812,19 +8812,19 @@
         <v>1988300</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1927924</v>
+        <v>1926253</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2049123</v>
+        <v>2046808</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5629228157835786</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5458293318242052</v>
+        <v>0.5453563244822209</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5801429729642795</v>
+        <v>0.5794875910745155</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3860</v>
@@ -8833,19 +8833,19 @@
         <v>4064685</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3982262</v>
+        <v>3979577</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4150474</v>
+        <v>4145507</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.588256221622215</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5763277276923028</v>
+        <v>0.575939161948518</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6006719232920216</v>
+        <v>0.5999531580787246</v>
       </c>
     </row>
     <row r="38">
@@ -8862,19 +8862,19 @@
         <v>754347</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>711865</v>
+        <v>707409</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>806164</v>
+        <v>804145</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.223336921556859</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2107595200182975</v>
+        <v>0.2094402854434207</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2386782011492035</v>
+        <v>0.2380805347341156</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>892</v>
@@ -8883,19 +8883,19 @@
         <v>994660</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>942118</v>
+        <v>944977</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1051805</v>
+        <v>1051406</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2816058514641033</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2667303496893589</v>
+        <v>0.2675395714453787</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2977845376946814</v>
+        <v>0.2976716592639486</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1654</v>
@@ -8904,19 +8904,19 @@
         <v>1749007</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1674317</v>
+        <v>1681191</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1827007</v>
+        <v>1829648</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2531227544626892</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2423132928888737</v>
+        <v>0.2433082462697153</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2644112953092067</v>
+        <v>0.2647933860516176</v>
       </c>
     </row>
     <row r="39">
@@ -9252,19 +9252,19 @@
         <v>56340</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44181</v>
+        <v>44912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70351</v>
+        <v>70884</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1767015560454679</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1385650163128221</v>
+        <v>0.1408578516033002</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2206423458487095</v>
+        <v>0.2223156013487338</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -9273,19 +9273,19 @@
         <v>74027</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61892</v>
+        <v>62400</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88502</v>
+        <v>89007</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2351480965941994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1966012092801285</v>
+        <v>0.1982122306356877</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2811262839634113</v>
+        <v>0.2827304608878807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>179</v>
@@ -9294,19 +9294,19 @@
         <v>130368</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113252</v>
+        <v>113589</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>152771</v>
+        <v>150558</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2057387956154893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1787278704051947</v>
+        <v>0.1792589565019403</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.241094586303261</v>
+        <v>0.2376016131972837</v>
       </c>
     </row>
     <row r="5">
@@ -9323,19 +9323,19 @@
         <v>193259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>175339</v>
+        <v>174260</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>210350</v>
+        <v>210736</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6061212868570643</v>
+        <v>0.6061212868570645</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5499186929257686</v>
+        <v>0.5465343398022954</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6597242303509858</v>
+        <v>0.6609362726464626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -9344,19 +9344,19 @@
         <v>178613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162407</v>
+        <v>163288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>193114</v>
+        <v>192365</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5673643448318121</v>
+        <v>0.5673643448318122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.515885994687064</v>
+        <v>0.5186849650779199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6134279320333818</v>
+        <v>0.611045755808729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>498</v>
@@ -9365,19 +9365,19 @@
         <v>371872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>346827</v>
+        <v>347170</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>396252</v>
+        <v>393817</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5868661761178693</v>
+        <v>0.5868661761178694</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5473412913030082</v>
+        <v>0.5478828159313872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6253408269873391</v>
+        <v>0.6214987505160032</v>
       </c>
     </row>
     <row r="6">
@@ -9394,19 +9394,19 @@
         <v>69246</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55543</v>
+        <v>53962</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86788</v>
+        <v>83419</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2171771570974676</v>
+        <v>0.2171771570974677</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1741992140585043</v>
+        <v>0.1692410050332007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2721934932880236</v>
+        <v>0.2616285270585237</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>115</v>
@@ -9415,19 +9415,19 @@
         <v>62171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51206</v>
+        <v>52226</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73953</v>
+        <v>73978</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1974875585739884</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1626565662527849</v>
+        <v>0.1658966078935615</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2349122803838416</v>
+        <v>0.2349911286791294</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>190</v>
@@ -9436,19 +9436,19 @@
         <v>131417</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112858</v>
+        <v>113593</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>150222</v>
+        <v>152245</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2073950282666414</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1781059811441861</v>
+        <v>0.179266506804739</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.237071358663607</v>
+        <v>0.2402640685560981</v>
       </c>
     </row>
     <row r="7">
@@ -9540,19 +9540,19 @@
         <v>101939</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>81386</v>
+        <v>79409</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>128898</v>
+        <v>125734</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1925878158171885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.153758748257047</v>
+        <v>0.1500227248194509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2435212829257723</v>
+        <v>0.23754288680875</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>97</v>
@@ -9561,19 +9561,19 @@
         <v>76776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>63586</v>
+        <v>63419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92717</v>
+        <v>93215</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1404883284535557</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1163534282770521</v>
+        <v>0.1160466313419782</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1696579183984198</v>
+        <v>0.1705688471303651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>171</v>
@@ -9582,19 +9582,19 @@
         <v>178715</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152500</v>
+        <v>153440</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>207995</v>
+        <v>208002</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1661219973047994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1417538187028657</v>
+        <v>0.142627998096278</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1933391276619328</v>
+        <v>0.1933453179542771</v>
       </c>
     </row>
     <row r="9">
@@ -9611,19 +9611,19 @@
         <v>371765</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>343467</v>
+        <v>345475</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>393958</v>
+        <v>396232</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7023567507153328</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6488936086494699</v>
+        <v>0.6526878284330883</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7442838141652774</v>
+        <v>0.7485804700079163</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>433</v>
@@ -9632,19 +9632,19 @@
         <v>348098</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>328255</v>
+        <v>327446</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>366552</v>
+        <v>368960</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6369664571792433</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6006561905689842</v>
+        <v>0.5991757865218836</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6707336694958165</v>
+        <v>0.6751409107403012</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>686</v>
@@ -9653,19 +9653,19 @@
         <v>719864</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>684416</v>
+        <v>683164</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>750925</v>
+        <v>751214</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.6691393866150092</v>
+        <v>0.6691393866150093</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6361893284800462</v>
+        <v>0.6350254900969807</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6980116284974164</v>
+        <v>0.6982803845429396</v>
       </c>
     </row>
     <row r="10">
@@ -9682,19 +9682,19 @@
         <v>55607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43070</v>
+        <v>42628</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71220</v>
+        <v>72674</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1050554334674786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08136922068289759</v>
+        <v>0.08053398687086664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1345523870751903</v>
+        <v>0.1372983244917933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>187</v>
@@ -9703,19 +9703,19 @@
         <v>121620</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105986</v>
+        <v>106557</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138582</v>
+        <v>139368</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.222545214367201</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1939380381244308</v>
+        <v>0.1949832476019605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2535840913973834</v>
+        <v>0.2550220370845798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>241</v>
@@ -9724,19 +9724,19 @@
         <v>177227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154821</v>
+        <v>155838</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200355</v>
+        <v>199789</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1647386160801913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1439119170564072</v>
+        <v>0.1448572448469621</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1862371646231481</v>
+        <v>0.1857106876624961</v>
       </c>
     </row>
     <row r="11">
@@ -9828,19 +9828,19 @@
         <v>39601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29129</v>
+        <v>29746</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51970</v>
+        <v>52555</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1255659764714716</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09236056633461823</v>
+        <v>0.09431638616582881</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1647843901237574</v>
+        <v>0.1666372056170335</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>65</v>
@@ -9849,19 +9849,19 @@
         <v>48124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38020</v>
+        <v>38557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59782</v>
+        <v>61955</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1357145582248726</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1072197078155362</v>
+        <v>0.1087359920425476</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1685926470756312</v>
+        <v>0.1747208754969585</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>110</v>
@@ -9870,19 +9870,19 @@
         <v>87725</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>72611</v>
+        <v>73700</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>104741</v>
+        <v>105030</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1309372487100435</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1083775613571721</v>
+        <v>0.1100036169128105</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1563339899745858</v>
+        <v>0.1567660883397166</v>
       </c>
     </row>
     <row r="13">
@@ -9899,19 +9899,19 @@
         <v>204736</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>188895</v>
+        <v>188322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>220465</v>
+        <v>219189</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6491641442697432</v>
+        <v>0.6491641442697433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5989367580353556</v>
+        <v>0.597118409532248</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6990383010924972</v>
+        <v>0.6949905633060021</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>308</v>
@@ -9920,19 +9920,19 @@
         <v>221238</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205367</v>
+        <v>206751</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>234870</v>
+        <v>236902</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6239143777567365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5791578774304664</v>
+        <v>0.5830620331073432</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6623603553446403</v>
+        <v>0.6680894458620369</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>520</v>
@@ -9941,19 +9941,19 @@
         <v>425974</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>403725</v>
+        <v>406076</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>447695</v>
+        <v>447508</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6358003686016517</v>
+        <v>0.635800368601652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6025921070312368</v>
+        <v>0.6061010878797582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6682211257556823</v>
+        <v>0.6679427998245562</v>
       </c>
     </row>
     <row r="14">
@@ -9970,19 +9970,19 @@
         <v>71047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58281</v>
+        <v>58939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84360</v>
+        <v>85351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2252698792587851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1847924835177987</v>
+        <v>0.1868813800314547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2674830700330734</v>
+        <v>0.2706269852156875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>160</v>
@@ -9991,19 +9991,19 @@
         <v>85235</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74086</v>
+        <v>73667</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97806</v>
+        <v>98365</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2403710640183908</v>
+        <v>0.2403710640183909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2089307856210559</v>
+        <v>0.2077489989256832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2758244209489263</v>
+        <v>0.2773999737425771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>262</v>
@@ -10012,19 +10012,19 @@
         <v>156281</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>137693</v>
+        <v>137712</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>173538</v>
+        <v>174565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2332623826883046</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2055177417202834</v>
+        <v>0.2055461171552782</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2590190087103051</v>
+        <v>0.2605525518767244</v>
       </c>
     </row>
     <row r="15">
@@ -10116,19 +10116,19 @@
         <v>116834</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95282</v>
+        <v>94848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140832</v>
+        <v>143349</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3135982693187231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2557504751474872</v>
+        <v>0.2545851477122635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3780142514449018</v>
+        <v>0.3847701859105891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -10137,19 +10137,19 @@
         <v>116093</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99813</v>
+        <v>97490</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>135563</v>
+        <v>134629</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2756482283302862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2369929552642924</v>
+        <v>0.2314780345512776</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3218761675965068</v>
+        <v>0.3196602350551804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>247</v>
@@ -10158,19 +10158,19 @@
         <v>232927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>207116</v>
+        <v>205751</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>266516</v>
+        <v>263431</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2934612507030606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2609430159445439</v>
+        <v>0.2592232293718179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3357804248755728</v>
+        <v>0.331893268066499</v>
       </c>
     </row>
     <row r="17">
@@ -10187,19 +10187,19 @@
         <v>184206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>159017</v>
+        <v>157292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213789</v>
+        <v>210788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4944350769912675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4268248810310382</v>
+        <v>0.4221935205980341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5738398965562146</v>
+        <v>0.5657857236249577</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>239</v>
@@ -10208,19 +10208,19 @@
         <v>205732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185114</v>
+        <v>185431</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225795</v>
+        <v>224985</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4884844450195766</v>
+        <v>0.4884844450195767</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4395301910764957</v>
+        <v>0.4402815569147187</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5361216104282621</v>
+        <v>0.5341970481937223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>360</v>
@@ -10229,19 +10229,19 @@
         <v>389938</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357370</v>
+        <v>352605</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425230</v>
+        <v>420237</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4912775576930563</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.450245419867025</v>
+        <v>0.4442424052534055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5357414775942895</v>
+        <v>0.5294509517211865</v>
       </c>
     </row>
     <row r="18">
@@ -10258,19 +10258,19 @@
         <v>71519</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54385</v>
+        <v>55576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>89644</v>
+        <v>92904</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1919666536900095</v>
+        <v>0.1919666536900096</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1459773243073206</v>
+        <v>0.1491744156826533</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2406169386258827</v>
+        <v>0.2493676248346141</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>208</v>
@@ -10279,19 +10279,19 @@
         <v>99339</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88006</v>
+        <v>87169</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>115718</v>
+        <v>114289</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2358673266501372</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2089580764840694</v>
+        <v>0.206971845460411</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2747582341434722</v>
+        <v>0.2713639782892651</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>281</v>
@@ -10300,19 +10300,19 @@
         <v>170858</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>150252</v>
+        <v>148500</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>195386</v>
+        <v>193310</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2152611916038833</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1893000997782623</v>
+        <v>0.1870926891971219</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2461642247588253</v>
+        <v>0.2435483363016728</v>
       </c>
     </row>
     <row r="19">
@@ -10404,19 +10404,19 @@
         <v>57327</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47234</v>
+        <v>47541</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69797</v>
+        <v>69507</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2803653298337738</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2310014017974099</v>
+        <v>0.2325045592336001</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3413481115499715</v>
+        <v>0.3399329504199017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>112</v>
@@ -10425,19 +10425,19 @@
         <v>54158</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44716</v>
+        <v>44918</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64389</v>
+        <v>64281</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2387660566275495</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.197138313706063</v>
+        <v>0.1980304984754704</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2838715408089158</v>
+        <v>0.2833991644108519</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>190</v>
@@ -10446,19 +10446,19 @@
         <v>111485</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>97490</v>
+        <v>96153</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>125845</v>
+        <v>127041</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.25848787617459</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2260398023949001</v>
+        <v>0.2229400871405736</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2917836946604569</v>
+        <v>0.294556375320892</v>
       </c>
     </row>
     <row r="21">
@@ -10475,19 +10475,19 @@
         <v>136094</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>122479</v>
+        <v>123223</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>146993</v>
+        <v>145911</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6655823881391206</v>
+        <v>0.6655823881391205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5989970953990645</v>
+        <v>0.6026328355330757</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7188823736103805</v>
+        <v>0.7135907248968104</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>318</v>
@@ -10496,19 +10496,19 @@
         <v>148599</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>137265</v>
+        <v>137321</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>158176</v>
+        <v>158904</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.6551305562260465</v>
+        <v>0.6551305562260464</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6051622738653484</v>
+        <v>0.6054103931639195</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6973564467866072</v>
+        <v>0.7005657905890459</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>500</v>
@@ -10517,19 +10517,19 @@
         <v>284693</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>270100</v>
+        <v>269358</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>300850</v>
+        <v>301072</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6600856702710391</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6262509960649078</v>
+        <v>0.6245301403378302</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6975463109225528</v>
+        <v>0.6980629718341247</v>
       </c>
     </row>
     <row r="22">
@@ -10546,19 +10546,19 @@
         <v>11052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6755</v>
+        <v>6941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17126</v>
+        <v>17609</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05405228202710554</v>
+        <v>0.05405228202710553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03303371704702306</v>
+        <v>0.03394452066726013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.083758468940928</v>
+        <v>0.0861163352804153</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -10567,19 +10567,19 @@
         <v>24067</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18687</v>
+        <v>18949</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30236</v>
+        <v>30751</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1061033871464039</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08238750016995053</v>
+        <v>0.08354174650908637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1333031578588982</v>
+        <v>0.1355748384014309</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -10588,19 +10588,19 @@
         <v>35119</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28538</v>
+        <v>28222</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44310</v>
+        <v>43857</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08142645355437084</v>
+        <v>0.08142645355437085</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06616811274326971</v>
+        <v>0.0654361695106261</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1027355939471777</v>
+        <v>0.1016859166090685</v>
       </c>
     </row>
     <row r="23">
@@ -10692,19 +10692,19 @@
         <v>31032</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23730</v>
+        <v>22416</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41641</v>
+        <v>41047</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1146343069398373</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0876608681832136</v>
+        <v>0.08280363145057816</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1538233783223826</v>
+        <v>0.1516270660953195</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -10713,19 +10713,19 @@
         <v>50291</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>40794</v>
+        <v>39289</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61305</v>
+        <v>60699</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1906752787041346</v>
+        <v>0.1906752787041345</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1546688125587359</v>
+        <v>0.1489640074684315</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2324357067389333</v>
+        <v>0.2301366560484016</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>118</v>
@@ -10734,19 +10734,19 @@
         <v>81323</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>67779</v>
+        <v>67966</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96022</v>
+        <v>95416</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.152159904553669</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1268180714275196</v>
+        <v>0.1271681251350039</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1796631462467429</v>
+        <v>0.1785287381899809</v>
       </c>
     </row>
     <row r="25">
@@ -10763,19 +10763,19 @@
         <v>174850</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>162741</v>
+        <v>161255</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>189230</v>
+        <v>187335</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6459004365094286</v>
+        <v>0.6459004365094285</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6011694411814633</v>
+        <v>0.5956815319860692</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6990205660876957</v>
+        <v>0.6920214195020279</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>227</v>
@@ -10784,19 +10784,19 @@
         <v>148583</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>137187</v>
+        <v>136658</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>162717</v>
+        <v>161677</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5633469805168952</v>
+        <v>0.5633469805168951</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5201393781555844</v>
+        <v>0.5181337657937077</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6169369648474922</v>
+        <v>0.6129945305601141</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>439</v>
@@ -10805,19 +10805,19 @@
         <v>323433</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>304754</v>
+        <v>306248</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>342098</v>
+        <v>341735</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6051609811956621</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.570212200431189</v>
+        <v>0.5730082233825323</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6400848738516415</v>
+        <v>0.6394053587364876</v>
       </c>
     </row>
     <row r="26">
@@ -10834,19 +10834,19 @@
         <v>64825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53856</v>
+        <v>54161</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76363</v>
+        <v>78210</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2394652565507341</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1989467736333029</v>
+        <v>0.2000732442903876</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2820881292575939</v>
+        <v>0.2889093485079888</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>157</v>
@@ -10855,19 +10855,19 @@
         <v>64877</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55937</v>
+        <v>55991</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>75024</v>
+        <v>75458</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2459777407789703</v>
+        <v>0.2459777407789702</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.212083808684727</v>
+        <v>0.212289105644323</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2844508724861567</v>
+        <v>0.2860969753128394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>274</v>
@@ -10876,19 +10876,19 @@
         <v>129702</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>116593</v>
+        <v>114476</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>146600</v>
+        <v>144106</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.242679114250669</v>
+        <v>0.2426791142506689</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2181525127716789</v>
+        <v>0.2141916616253569</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2742977848872888</v>
+        <v>0.2696313542248099</v>
       </c>
     </row>
     <row r="27">
@@ -10980,19 +10980,19 @@
         <v>165664</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>141837</v>
+        <v>143362</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>194453</v>
+        <v>191922</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2318908390693826</v>
+        <v>0.2318908390693825</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1985383924812413</v>
+        <v>0.2006723508609099</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2721874105401395</v>
+        <v>0.2686455203087656</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>244</v>
@@ -11001,19 +11001,19 @@
         <v>198615</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>177256</v>
+        <v>176127</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>222700</v>
+        <v>223388</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2579218506038723</v>
+        <v>0.2579218506038722</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2301851720678108</v>
+        <v>0.2287189191848657</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2891982401236871</v>
+        <v>0.2900920951777396</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>390</v>
@@ -11022,19 +11022,19 @@
         <v>364279</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>332502</v>
+        <v>330079</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>398226</v>
+        <v>399088</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2453942926527171</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2239876448763122</v>
+        <v>0.2223555110618577</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2682623574214194</v>
+        <v>0.2688426204030877</v>
       </c>
     </row>
     <row r="29">
@@ -11051,19 +11051,19 @@
         <v>444676</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>410959</v>
+        <v>416604</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>471123</v>
+        <v>474475</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6224412988991918</v>
+        <v>0.6224412988991916</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5752450825187926</v>
+        <v>0.5831466115655246</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6594605342932547</v>
+        <v>0.664152423978814</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>535</v>
@@ -11072,19 +11072,19 @@
         <v>443246</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>417614</v>
+        <v>416337</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>467130</v>
+        <v>469593</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5755995464016732</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5423137457113836</v>
+        <v>0.5406560890198157</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6066153397212449</v>
+        <v>0.6098146122368212</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>885</v>
@@ -11093,19 +11093,19 @@
         <v>887922</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>848578</v>
+        <v>853487</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>925036</v>
+        <v>929064</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5981423802892014</v>
+        <v>0.5981423802892013</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5716383156488125</v>
+        <v>0.5749457490134842</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.623143975224398</v>
+        <v>0.6258575767166795</v>
       </c>
     </row>
     <row r="30">
@@ -11122,19 +11122,19 @@
         <v>104066</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>85504</v>
+        <v>84853</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>124337</v>
+        <v>123862</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1456678620314256</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1196856076251479</v>
+        <v>0.1187734654494241</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1740427143232389</v>
+        <v>0.1733775749130451</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>178</v>
@@ -11143,19 +11143,19 @@
         <v>128198</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>111115</v>
+        <v>110296</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>146526</v>
+        <v>149267</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1664786029944545</v>
+        <v>0.1664786029944546</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1442938487210431</v>
+        <v>0.1432308771384998</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1902784905264517</v>
+        <v>0.1938385724918935</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>276</v>
@@ -11164,19 +11164,19 @@
         <v>232264</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>205720</v>
+        <v>206473</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>258991</v>
+        <v>262550</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1564633270580815</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1385820373352352</v>
+        <v>0.1390892843218054</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1744673241838898</v>
+        <v>0.1768648756962734</v>
       </c>
     </row>
     <row r="31">
@@ -11268,19 +11268,19 @@
         <v>142848</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>121787</v>
+        <v>120623</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>167749</v>
+        <v>165539</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1796844728796299</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1531913768258051</v>
+        <v>0.1517276631403699</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2110059177445364</v>
+        <v>0.2082266445633617</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>145</v>
@@ -11289,19 +11289,19 @@
         <v>116793</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>99364</v>
+        <v>98580</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>135469</v>
+        <v>135158</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1406118392750164</v>
+        <v>0.1406118392750165</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1196282583243121</v>
+        <v>0.1186847356939185</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1630965962011506</v>
+        <v>0.1627212533900654</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>280</v>
@@ -11310,19 +11310,19 @@
         <v>259642</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>233036</v>
+        <v>231559</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>292310</v>
+        <v>289536</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1597201720287953</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1433537578463843</v>
+        <v>0.1424446350060834</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1798160850051531</v>
+        <v>0.1781099275305064</v>
       </c>
     </row>
     <row r="33">
@@ -11339,19 +11339,19 @@
         <v>520980</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>490612</v>
+        <v>491976</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>547155</v>
+        <v>546306</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.655323707926638</v>
+        <v>0.6553237079266377</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6171248318875131</v>
+        <v>0.6188413386716685</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6882486317986102</v>
+        <v>0.6871803045088057</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>555</v>
@@ -11360,19 +11360,19 @@
         <v>477283</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>452190</v>
+        <v>452254</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>502919</v>
+        <v>504827</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.5746191405245344</v>
+        <v>0.5746191405245346</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5444081182608915</v>
+        <v>0.5444854174749064</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6054828087230434</v>
+        <v>0.6077798918200871</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1025</v>
@@ -11381,19 +11381,19 @@
         <v>998263</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>961633</v>
+        <v>959951</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1033428</v>
+        <v>1034090</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.6140874227057251</v>
+        <v>0.6140874227057252</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5915540868779015</v>
+        <v>0.5905194711524661</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6357197030840358</v>
+        <v>0.6361264615782598</v>
       </c>
     </row>
     <row r="34">
@@ -11410,19 +11410,19 @@
         <v>131168</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>112879</v>
+        <v>112062</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>152807</v>
+        <v>152432</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1649918191937323</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1419873147702132</v>
+        <v>0.1409591037041205</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1922105130242907</v>
+        <v>0.1917393457386514</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>361</v>
@@ -11431,19 +11431,19 @@
         <v>236531</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>214659</v>
+        <v>214211</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>259663</v>
+        <v>258968</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.284769020200449</v>
+        <v>0.2847690202004491</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2584355657294563</v>
+        <v>0.2578960508881192</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3126175255015265</v>
+        <v>0.3117808836725078</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>515</v>
@@ -11452,19 +11452,19 @@
         <v>367699</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>339930</v>
+        <v>338446</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>400121</v>
+        <v>396528</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2261924052654795</v>
+        <v>0.2261924052654796</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2091102723056185</v>
+        <v>0.2081970393241996</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2461366262766631</v>
+        <v>0.2439267919322623</v>
       </c>
     </row>
     <row r="35">
@@ -11556,19 +11556,19 @@
         <v>711587</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>661481</v>
+        <v>658000</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>763723</v>
+        <v>764391</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2021162039006206</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1878843737660608</v>
+        <v>0.1868955179540205</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2169246253317053</v>
+        <v>0.217114445207067</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1004</v>
@@ -11577,19 +11577,19 @@
         <v>734877</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>691078</v>
+        <v>694292</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>778759</v>
+        <v>781156</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1971074907699235</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1853597091296884</v>
+        <v>0.1862218118583998</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2088773677410105</v>
+        <v>0.2095204055680803</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1685</v>
@@ -11598,19 +11598,19 @@
         <v>1446464</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1373903</v>
+        <v>1381429</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1512862</v>
+        <v>1511950</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1995401179323074</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.189530266911151</v>
+        <v>0.190568432570005</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2086996398836566</v>
+        <v>0.2085738229894982</v>
       </c>
     </row>
     <row r="37">
@@ -11627,19 +11627,19 @@
         <v>2230566</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2162677</v>
+        <v>2167677</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2293093</v>
+        <v>2292048</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6335607230659805</v>
+        <v>0.6335607230659807</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6142778032114889</v>
+        <v>0.6156979962323486</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6513204897756679</v>
+        <v>0.6510236578349068</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2921</v>
@@ -11648,19 +11648,19 @@
         <v>2171392</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2117679</v>
+        <v>2115306</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2225870</v>
+        <v>2222486</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5824069625964751</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5680001184020572</v>
+        <v>0.5673635592940569</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5970190522917045</v>
+        <v>0.5961112102629903</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4913</v>
@@ -11669,19 +11669,19 @@
         <v>4401958</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4321537</v>
+        <v>4320768</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4488370</v>
+        <v>4483063</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.607251273685795</v>
+        <v>0.6072512736857952</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5961570669204831</v>
+        <v>0.5960510464843863</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6191717840604763</v>
+        <v>0.6184396779141214</v>
       </c>
     </row>
     <row r="38">
@@ -11698,19 +11698,19 @@
         <v>578529</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>539221</v>
+        <v>534614</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>627215</v>
+        <v>626105</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1643230730333987</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1531581043349651</v>
+        <v>0.1518493960875252</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1781513948427237</v>
+        <v>0.1778363385262801</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1427</v>
@@ -11719,19 +11719,19 @@
         <v>822038</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>780350</v>
+        <v>781034</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>861573</v>
+        <v>862340</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2204855466336016</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2093041355415014</v>
+        <v>0.2094874731023851</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2310894756187021</v>
+        <v>0.2312953939427604</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2118</v>
@@ -11740,19 +11740,19 @@
         <v>1400567</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1346253</v>
+        <v>1340795</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1463303</v>
+        <v>1462936</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.1932086083818974</v>
+        <v>0.1932086083818975</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1857160022178033</v>
+        <v>0.1849630560500745</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.201863043658867</v>
+        <v>0.201812323441685</v>
       </c>
     </row>
     <row r="39">
